--- a/cssb.xlsx
+++ b/cssb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Meteo" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="172">
   <si>
     <t>t</t>
   </si>
@@ -561,6 +561,18 @@
   </si>
   <si>
     <t>C4</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>33°58'08.7"N 6°52'37.8"W</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jul</t>
   </si>
 </sst>
 </file>
@@ -571,7 +583,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,6 +658,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -795,7 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -855,6 +873,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1239,49 +1258,49 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="2.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="7" customWidth="1"/>
+    <col min="9" max="9" width="1.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="6">
-        <v>23</v>
-      </c>
-      <c r="C2" s="4">
-        <v>150</v>
+      <c r="B2" s="3">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3">
+        <v>80</v>
       </c>
       <c r="D2" s="4">
         <v>0.101325</v>
@@ -1292,200 +1311,218 @@
       <c r="F2" s="4">
         <v>0.05</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.375</v>
       </c>
-      <c r="B3" s="6">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4">
-        <v>290</v>
+      <c r="B3" s="3">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3">
+        <v>150</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4">
         <v>9</v>
       </c>
       <c r="F3" s="4"/>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="6">
-        <v>24.6</v>
-      </c>
-      <c r="C4" s="4">
-        <v>500</v>
+      <c r="B4" s="3">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3">
+        <v>400</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4">
         <v>9</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B5" s="6">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4">
-        <v>720</v>
+      <c r="B5" s="3">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3">
+        <v>625</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4">
         <v>11</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.5</v>
       </c>
-      <c r="B6" s="6">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4">
-        <v>860</v>
+      <c r="B6" s="3">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3">
+        <v>790</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
         <v>11</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B7" s="6">
-        <v>27.1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>950</v>
+      <c r="B7" s="3">
+        <v>26</v>
+      </c>
+      <c r="C7" s="3">
+        <v>880</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
         <v>11</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>27</v>
       </c>
-      <c r="C8" s="4">
-        <v>980</v>
+      <c r="C8" s="3">
+        <v>900</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
         <v>20</v>
       </c>
       <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.625</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>27</v>
       </c>
-      <c r="C9" s="4">
-        <v>900</v>
+      <c r="C9" s="3">
+        <v>850</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
         <v>20</v>
       </c>
       <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="H9" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B10" s="6">
-        <v>26.7</v>
-      </c>
-      <c r="C10" s="4">
-        <v>750</v>
+      <c r="B10" s="3">
+        <v>26.9</v>
+      </c>
+      <c r="C10" s="3">
+        <v>700</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -1493,15 +1530,15 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>27</v>
       </c>
-      <c r="C11" s="4">
-        <v>450</v>
+      <c r="C11" s="3">
+        <v>500</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
@@ -1509,15 +1546,15 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.75</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>26</v>
       </c>
-      <c r="C12" s="4">
-        <v>200</v>
+      <c r="C12" s="3">
+        <v>320</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
@@ -1535,27 +1572,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="121" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="13" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="13"/>
-    <col min="3" max="3" width="42.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.81640625" customWidth="1"/>
-    <col min="5" max="6" width="8.54296875" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="3.36328125" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="3.54296875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="12"/>
+    <col min="3" max="3" width="42.21875" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1565,28 +1602,28 @@
         <v>8</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>163</v>
       </c>
       <c r="H1">
         <v>1</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="51" t="s">
         <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="52" t="s">
+      <c r="K1" s="51" t="s">
         <v>119</v>
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="11">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.19500000000000001</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1601,22 +1638,22 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="51" t="s">
         <v>159</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>0.04</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1631,15 +1668,15 @@
       <c r="J3" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="51" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0.01</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1654,15 +1691,15 @@
       <c r="J4" t="s">
         <v>167</v>
       </c>
-      <c r="K4" s="52" t="s">
+      <c r="K4" s="51" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0.04</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1675,11 +1712,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0.02</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1692,11 +1729,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>0.5</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -1711,11 +1748,11 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1728,11 +1765,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>0.19</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1745,11 +1782,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1762,11 +1799,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0.02</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1779,11 +1816,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>7.8E-2</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1796,11 +1833,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1813,11 +1850,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1830,11 +1867,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1847,12 +1884,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>9</v>
+      <c r="B16" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>39</v>
@@ -1864,11 +1901,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>159</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1881,11 +1918,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>0.02</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1898,11 +1935,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>0.25</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -1915,11 +1952,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>0.01</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1932,11 +1969,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>0.4</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1949,12 +1986,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
-        <v>0.01</v>
+      <c r="B22" s="10">
+        <v>0.02</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>122</v>
@@ -1966,12 +2003,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
-        <v>12</v>
+      <c r="B23" s="10">
+        <v>6</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>50</v>
@@ -2002,492 +2039,492 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="101" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.54296875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>110</v>
       </c>
       <c r="P1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>35</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="19">
         <f t="shared" ref="F2:F8" si="0">IF($G$1=$P$3,P4,IF($G$1=$Q$3,Q4))</f>
         <v>0.85</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="21">
         <f t="shared" ref="I2:I9" si="1">IF($J$1=$P$14,P15,IF($J$1=$Q$14,Q15,IF($J$1=$R$14,R15)))</f>
         <v>0.02</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="29">
+      <c r="L2" s="28">
         <f>IF($M$1=$P$25,P26,IF($M$1=$Q$25,Q26))</f>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="34" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="35"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>0.95</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="19">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="21">
         <f t="shared" si="1"/>
-        <v>0.85</v>
-      </c>
-      <c r="J3" s="16" t="s">
+        <v>0.89</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="22">
         <f>R26</f>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>0.05</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="19">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="22">
+      <c r="I4" s="21">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="22">
         <f>IF($M$1=$P$25,P27,IF($M$1=$Q$25,Q27))</f>
         <v>400</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="P4" s="15">
+      <c r="P4" s="14">
         <v>0.85</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>0.86</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>0.9</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="19">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="22">
         <f>R27</f>
         <v>930</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>0.3</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="18">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>2530</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <f t="shared" si="1"/>
         <v>0.89600000000000002</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="22">
         <f>IF($M$1=$P$25,P28,IF($M$1=$Q$25,Q28))</f>
         <v>14</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="O6" s="15" t="s">
+      <c r="M6" s="16"/>
+      <c r="O6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>0.95</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>0.92</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>50</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="21">
         <f t="shared" si="1"/>
-        <v>290</v>
-      </c>
-      <c r="J7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="22">
         <f>R28</f>
         <v>20</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="16"/>
+      <c r="O7" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>0.9</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>0.22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="21" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="22">
         <f>IF($M$1=$P$25,P29,IF($M$1=$Q$25,Q29))</f>
         <v>80</v>
       </c>
-      <c r="M8" s="7"/>
-      <c r="O8" s="15" t="s">
+      <c r="M8" s="6"/>
+      <c r="O8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="14">
         <v>2530</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="14">
         <v>1190</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <f>IF($G$1=$P$3,P11,IF($G$1=$Q$3,Q11))</f>
         <v>20</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="22">
         <f>R29</f>
         <v>5</v>
       </c>
-      <c r="O9" s="15" t="s">
+      <c r="O9" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="14">
         <v>0.72</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="14">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O10" s="15" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="15">
-        <v>70</v>
-      </c>
-      <c r="Q10" s="15">
+      <c r="P10" s="14">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="O11" s="15" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="15">
+      <c r="P11" s="14">
         <v>20</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="58" t="s">
         <v>123</v>
       </c>
@@ -2497,14 +2534,14 @@
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="38" t="s">
+      <c r="O13" s="25"/>
+      <c r="P13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="39"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="58"/>
@@ -2512,20 +2549,20 @@
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
-      <c r="O14" s="25" t="s">
+      <c r="O14" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="P14" s="40" t="s">
+      <c r="P14" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="Q14" s="40" t="s">
+      <c r="Q14" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="39" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
       <c r="D15" s="58"/>
@@ -2533,20 +2570,20 @@
       <c r="F15" s="58"/>
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>0.02</v>
       </c>
-      <c r="Q15" s="16">
+      <c r="Q15" s="15">
         <v>0</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="59" t="s">
         <v>111</v>
       </c>
@@ -2556,20 +2593,20 @@
       <c r="F16" s="59"/>
       <c r="G16" s="59"/>
       <c r="H16" s="59"/>
-      <c r="O16" s="16" t="s">
+      <c r="O16" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="P16" s="16">
-        <v>0.85</v>
-      </c>
-      <c r="Q16" s="16">
+      <c r="P16" s="15">
+        <v>0.89</v>
+      </c>
+      <c r="Q16" s="15">
         <v>0.98</v>
       </c>
-      <c r="R16" s="16">
+      <c r="R16" s="15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>115</v>
       </c>
@@ -2579,164 +2616,164 @@
       <c r="F17" s="59"/>
       <c r="G17" s="59"/>
       <c r="H17" s="59"/>
-      <c r="O17" s="16" t="s">
+      <c r="O17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="P17" s="24">
+      <c r="P17" s="23">
         <v>73</v>
       </c>
-      <c r="Q17" s="16">
+      <c r="Q17" s="15">
         <v>24</v>
       </c>
-      <c r="R17" s="16">
+      <c r="R17" s="15">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O18" s="16" t="s">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="P18" s="16">
+      <c r="P18" s="15">
         <v>2700</v>
       </c>
-      <c r="Q18" s="16">
+      <c r="Q18" s="15">
         <v>2250</v>
       </c>
-      <c r="R18" s="16">
+      <c r="R18" s="15">
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O19" s="16" t="s">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O19" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="P19" s="16">
+      <c r="P19" s="15">
         <v>0.89600000000000002</v>
       </c>
-      <c r="Q19" s="16">
+      <c r="Q19" s="15">
         <v>0.72</v>
       </c>
-      <c r="R19" s="16">
+      <c r="R19" s="15">
         <v>0.85</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O20" s="16" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O20" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="P20" s="16">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="16">
-        <v>650</v>
-      </c>
-      <c r="R20" s="16">
+      <c r="P20" s="15">
+        <v>50</v>
+      </c>
+      <c r="Q20" s="15">
+        <v>65</v>
+      </c>
+      <c r="R20" s="15">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O21" s="16" t="s">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O21" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="16">
+      <c r="P21" s="15">
         <v>0.02</v>
       </c>
-      <c r="Q21" s="16">
+      <c r="Q21" s="15">
         <v>0.02</v>
       </c>
-      <c r="R21" s="16">
+      <c r="R21" s="15">
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O22" s="16" t="s">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O22" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>75</v>
       </c>
-      <c r="Q22" s="16">
+      <c r="Q22" s="15">
         <v>50</v>
       </c>
-      <c r="R22" s="16">
+      <c r="R22" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O24" s="37"/>
-      <c r="P24" s="41" t="s">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O24" s="36"/>
+      <c r="P24" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="43"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O25" s="36" t="s">
+      <c r="Q24" s="41"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O25" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="P25" s="44" t="s">
+      <c r="P25" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="Q25" s="44" t="s">
+      <c r="Q25" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="R25" s="45" t="s">
+      <c r="R25" s="44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O26" s="27" t="s">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O26" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P26" s="27">
+      <c r="P26" s="26">
         <v>0.04</v>
       </c>
-      <c r="Q26" s="27">
+      <c r="Q26" s="26">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="R26" s="27">
+      <c r="R26" s="26">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O27" s="27" t="s">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O27" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="P27" s="27">
+      <c r="P27" s="26">
         <v>160</v>
       </c>
-      <c r="Q27" s="27">
+      <c r="Q27" s="26">
         <v>400</v>
       </c>
-      <c r="R27" s="27">
+      <c r="R27" s="26">
         <v>930</v>
       </c>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O28" s="27" t="s">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="P28" s="27">
+      <c r="P28" s="26">
         <v>60</v>
       </c>
-      <c r="Q28" s="27">
+      <c r="Q28" s="26">
         <v>14</v>
       </c>
-      <c r="R28" s="27">
+      <c r="R28" s="26">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="O29" s="27" t="s">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="O29" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="P29" s="27">
+      <c r="P29" s="26">
         <v>6</v>
       </c>
-      <c r="Q29" s="27">
+      <c r="Q29" s="26">
         <v>80</v>
       </c>
-      <c r="R29" s="27">
+      <c r="R29" s="26">
         <v>5</v>
       </c>
     </row>
@@ -2767,25 +2804,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="53"/>
       <c r="D2" s="60" t="s">
         <v>140</v>
       </c>
@@ -2795,25 +2832,25 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="B3" s="54"/>
-    </row>
-    <row r="4" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="54" t="s">
+      <c r="B3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="B4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="54"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="B5" s="53"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:F2"/>
@@ -2832,289 +2869,289 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="8.90625" customWidth="1"/>
-    <col min="10" max="10" width="24.81640625" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="6">
-        <v>32</v>
-      </c>
-      <c r="C2" s="6">
+      <c r="B2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="6">
-        <v>34</v>
-      </c>
-      <c r="E2" s="48">
+      <c r="C2" s="3">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3">
+        <v>26</v>
+      </c>
+      <c r="E2" s="47">
         <v>0</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="54">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="55">
         <v>0.02</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>0.375</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3">
+        <v>35</v>
+      </c>
+      <c r="D3" s="3">
         <v>34</v>
       </c>
-      <c r="C3" s="6">
-        <v>52.5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>52</v>
-      </c>
-      <c r="E3" s="48">
-        <v>0.13</v>
-      </c>
-      <c r="F3" s="47"/>
-      <c r="I3" s="50" t="s">
+      <c r="E3" s="47">
+        <v>0.11</v>
+      </c>
+      <c r="F3" s="46"/>
+      <c r="I3" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B4" s="6">
-        <v>36</v>
-      </c>
-      <c r="C4" s="6">
-        <v>55</v>
-      </c>
-      <c r="D4" s="6">
-        <v>58</v>
-      </c>
-      <c r="E4" s="48">
-        <v>0.29000000000000004</v>
-      </c>
-      <c r="F4" s="47"/>
-      <c r="I4" s="50" t="s">
+      <c r="B4" s="3">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45</v>
+      </c>
+      <c r="E4" s="47">
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="F4" s="46"/>
+      <c r="I4" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="B5" s="6">
-        <v>40</v>
-      </c>
-      <c r="C5" s="6">
-        <v>66</v>
-      </c>
-      <c r="D5" s="6">
-        <v>65</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0.51500000000000001</v>
-      </c>
-      <c r="F5" s="47"/>
-      <c r="I5" s="50" t="s">
+      <c r="B5" s="3">
+        <v>38</v>
+      </c>
+      <c r="C5" s="3">
+        <v>60</v>
+      </c>
+      <c r="D5" s="3">
+        <v>53</v>
+      </c>
+      <c r="E5" s="47">
+        <v>0.38</v>
+      </c>
+      <c r="F5" s="46"/>
+      <c r="I5" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>0.5</v>
       </c>
-      <c r="B6" s="6">
-        <v>44</v>
-      </c>
-      <c r="C6" s="6">
-        <v>75</v>
-      </c>
-      <c r="D6" s="6">
-        <v>69</v>
-      </c>
-      <c r="E6" s="48">
-        <v>0.79500000000000004</v>
-      </c>
-      <c r="F6" s="47"/>
-      <c r="I6" s="51" t="s">
+      <c r="B6" s="3">
+        <v>41</v>
+      </c>
+      <c r="C6" s="3">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6" s="47">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="F6" s="46"/>
+      <c r="I6" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K6" s="49" t="s">
+      <c r="K6" s="48" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B7" s="6">
-        <v>46</v>
-      </c>
-      <c r="C7" s="6">
-        <v>70</v>
-      </c>
-      <c r="D7" s="6">
-        <v>75</v>
-      </c>
-      <c r="E7" s="48">
-        <v>1.175</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="3">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3">
+        <v>67</v>
+      </c>
+      <c r="E7" s="47">
+        <v>0.875</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B8" s="6">
-        <v>45</v>
-      </c>
-      <c r="C8" s="6">
-        <v>68</v>
-      </c>
-      <c r="D8" s="6">
-        <v>70</v>
-      </c>
-      <c r="E8" s="48">
-        <v>1.5449999999999999</v>
-      </c>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="3">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3">
+        <v>63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8" s="47">
+        <v>1.125</v>
+      </c>
+      <c r="F8" s="46"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>0.625</v>
       </c>
-      <c r="B9" s="6">
-        <v>43</v>
-      </c>
-      <c r="C9" s="6">
-        <v>60</v>
-      </c>
-      <c r="D9" s="6">
-        <v>64</v>
-      </c>
-      <c r="E9" s="48">
-        <v>1.845</v>
-      </c>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>41</v>
+      </c>
+      <c r="C9" s="3">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3">
+        <v>56</v>
+      </c>
+      <c r="E9" s="47">
+        <v>1.335</v>
+      </c>
+      <c r="F9" s="46"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B10" s="6">
-        <v>41</v>
-      </c>
-      <c r="C10" s="6">
-        <v>53</v>
-      </c>
-      <c r="D10" s="6">
-        <v>55</v>
-      </c>
-      <c r="E10" s="48">
-        <v>2.0949999999999998</v>
-      </c>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="3">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>47</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42</v>
+      </c>
+      <c r="E10" s="47">
+        <v>1.4849999999999999</v>
+      </c>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B11" s="6">
-        <v>39</v>
-      </c>
-      <c r="C11" s="6">
-        <v>48</v>
-      </c>
-      <c r="D11" s="6">
-        <v>45</v>
-      </c>
-      <c r="E11" s="48">
-        <v>2.2949999999999999</v>
-      </c>
-      <c r="F11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="3">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3">
+        <v>37</v>
+      </c>
+      <c r="E11" s="47">
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>0.75</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
         <v>33</v>
       </c>
-      <c r="C12" s="6">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6">
-        <v>40</v>
-      </c>
-      <c r="E12" s="48">
-        <v>2.42</v>
-      </c>
-      <c r="F12" s="47"/>
+      <c r="D12" s="3">
+        <v>32</v>
+      </c>
+      <c r="E12" s="47">
+        <v>1.7</v>
+      </c>
+      <c r="F12" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
